--- a/data/trans_dic/P10_3-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P10_3-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no tiene acceso a internet</t>
+          <t>Población que no tiene acceso a internet (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -606,7 +607,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +617,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +627,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>5,16%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,76; 5,99</t>
+          <t>2,79; 6,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,01; 7,37</t>
+          <t>3,08; 8,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,54; 8,15</t>
+          <t>4,49; 8,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,65; 7,36</t>
+          <t>3,8; 7,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,22; 6,53</t>
+          <t>4,13; 6,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,85; 6,89</t>
+          <t>3,88; 6,96</t>
         </is>
       </c>
     </row>
@@ -686,7 +687,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -696,7 +697,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -706,7 +707,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>6,38%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,65; 9,85</t>
+          <t>4,73; 9,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,29; 9,71</t>
+          <t>3,21; 9,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,42; 12,45</t>
+          <t>7,67; 12,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,31; 11,15</t>
+          <t>5,11; 10,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,8; 10,28</t>
+          <t>6,67; 10,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,99; 8,82</t>
+          <t>4,78; 8,63</t>
         </is>
       </c>
     </row>
@@ -766,7 +767,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,9%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -776,7 +777,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>11,65%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -786,7 +787,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,69%</t>
+          <t>9,83%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,61; 16,43</t>
+          <t>5,29; 15,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,27; 23,05</t>
+          <t>3,98; 15,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,95; 19,72</t>
+          <t>8,87; 20,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,4; 20,02</t>
+          <t>6,95; 18,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,98; 16,04</t>
+          <t>8,22; 15,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,37; 18,11</t>
+          <t>6,36; 14,2</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -856,7 +857,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,7 +867,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>6,19%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,6; 7,49</t>
+          <t>4,65; 7,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,15; 8,29</t>
+          <t>4,05; 7,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,15; 9,98</t>
+          <t>7,23; 9,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,67; 9,02</t>
+          <t>5,46; 8,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,16; 8,24</t>
+          <t>6,34; 8,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,41; 8,11</t>
+          <t>5,12; 7,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -921,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no tiene acceso a internet (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>68119</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>80178</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>110209</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>98497</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>178327</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>178674</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>45702; 98884</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>50897; 133562</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>80439; 143800</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>68792; 135031</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>141830; 223107</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>134399; 241066</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>94257</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>75364</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>138044</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>100968</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>232300</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>176332</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>65614; 136369</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>44100; 136522</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>108078; 174926</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>71054; 140495</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>186639; 286284</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>132264; 238610</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>41184</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>34048</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>57048</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>47973</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>98232</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>82021</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>22360; 65613</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>16813; 64101</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>36518; 82718</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>28635; 76635</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>68617; 129383</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>53049; 118497</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>202.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>203559</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>189589</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>305300</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>247438</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>508860</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>437027</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>160509; 261286</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>139552; 259001</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>261238; 360224</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>197147; 306265</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>447654; 581397</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>361240; 526419</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>